--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zee/development/CS151_labs/PA1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adebu\PycharmProjects\cs151-pa1-Ms-Gigi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0D32F8-6D7A-7B45-9670-B8699C8948C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847B40CD-2BEE-4C18-B8BD-A761D7721DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="67920" windowHeight="28300" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -34,17 +34,352 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>You need to create your own tests</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="110">
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Input Sequence</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>TC1</t>
+  </si>
+  <si>
+    <t>Name: Alice</t>
+  </si>
+  <si>
+    <t>"Ah, Alice, a name that echoes with potential!"</t>
+  </si>
+  <si>
+    <t>Successful name input.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decision: raft </t>
+  </si>
+  <si>
+    <t>"You gather logs and vines to construct a makeshift raft."</t>
+  </si>
+  <si>
+    <t>Chooses to build a raft.</t>
+  </si>
+  <si>
+    <t>"You arrive safely on the other side..."</t>
+  </si>
+  <si>
+    <t>Successfully crosses the river.</t>
+  </si>
+  <si>
+    <t>Decision: cave</t>
+  </si>
+  <si>
+    <t>"You cautiously approach the cave entrance..."</t>
+  </si>
+  <si>
+    <t>Chooses to explore the cave.</t>
+  </si>
+  <si>
+    <t>Steps: 6</t>
+  </si>
+  <si>
+    <t>"You skillfully navigate through the cave and avoid traps!"</t>
+  </si>
+  <si>
+    <t>Expected Output</t>
+  </si>
+  <si>
+    <t>Successfully finds the Master Key.</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>Name: Bob</t>
+  </si>
+  <si>
+    <t>"Ah, Bob, a name that echoes with potential!"</t>
+  </si>
+  <si>
+    <t>Decision: swim</t>
+  </si>
+  <si>
+    <t>"You take a deep breath and plunge into the river..."</t>
+  </si>
+  <si>
+    <t>Chooses to swim across the river.</t>
+  </si>
+  <si>
+    <t>Steps: 3</t>
+  </si>
+  <si>
+    <t>"You stumble over a hidden trap and fall!"</t>
+  </si>
+  <si>
+    <t>Game over due to failing trap avoidance.</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>Name: Charlie</t>
+  </si>
+  <si>
+    <t>"Ah, Charlie, a name that echoes with potential!"</t>
+  </si>
+  <si>
+    <t>Confidence: 8.0</t>
+  </si>
+  <si>
+    <t>"You swim skillfully and reach the other side with ease!"</t>
+  </si>
+  <si>
+    <t>Successfully swims across.</t>
+  </si>
+  <si>
+    <t>Decision: temple</t>
+  </si>
+  <si>
+    <t>"You push aside the vines and enter the ancient temple..."</t>
+  </si>
+  <si>
+    <t>Chooses to explore the temple.</t>
+  </si>
+  <si>
+    <t>Riddle Answer: piano</t>
+  </si>
+  <si>
+    <t>"The door creaks open, revealing a chamber filled..."</t>
+  </si>
+  <si>
+    <t>Successfully answers the riddle.</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>Name: Dave</t>
+  </si>
+  <si>
+    <t>"Ah, Dave, a name that echoes with potential!"</t>
+  </si>
+  <si>
+    <t>Decision: raft</t>
+  </si>
+  <si>
+    <t>Riddle Answer: guitar</t>
+  </si>
+  <si>
+    <t>Next Decision: solve</t>
+  </si>
+  <si>
+    <t>"The door does not budge..."</t>
+  </si>
+  <si>
+    <t>"You take a moment and realize the answer is 'piano.'"</t>
+  </si>
+  <si>
+    <t>Incorrect answer leads to next options.</t>
+  </si>
+  <si>
+    <t>Successfully solves the riddle after retrying.</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>"Ah, Eve, a name that echoes with potential!"</t>
+  </si>
+  <si>
+    <t>Name: Eve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Decision: swim</t>
+  </si>
+  <si>
+    <t>Confidence: 9.0</t>
+  </si>
+  <si>
+    <t>Steps: 12</t>
+  </si>
+  <si>
+    <t>"You rush through the cave confidently, but..."</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>Confidence: 1.5</t>
+  </si>
+  <si>
+    <t>TC8</t>
+  </si>
+  <si>
+    <t>Name: Hannah</t>
+  </si>
+  <si>
+    <t>Ah, Hannah, a name that echoes with potential!</t>
+  </si>
+  <si>
+    <t>You gather logs and vines to construct a makeshift raft.</t>
+  </si>
+  <si>
+    <t>Cave Decision: cave</t>
+  </si>
+  <si>
+    <t>You cautiously approach the cave entrance...</t>
+  </si>
+  <si>
+    <t>Steps: 5</t>
+  </si>
+  <si>
+    <t>You skillfully navigate through the cave and avoid traps!</t>
+  </si>
+  <si>
+    <t>TC9</t>
+  </si>
+  <si>
+    <t>Name: Isaac</t>
+  </si>
+  <si>
+    <t>Ah, Isaac, a name that echoes with potential!</t>
+  </si>
+  <si>
+    <t>You take a deep breath and plunge into the river...</t>
+  </si>
+  <si>
+    <t>Cave Decision: temple</t>
+  </si>
+  <si>
+    <t>You push aside the vines and enter the ancient temple...</t>
+  </si>
+  <si>
+    <t>The door does not budge...</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>Name: Julia</t>
+  </si>
+  <si>
+    <t>Ah, Julia, a name that echoes with potential!</t>
+  </si>
+  <si>
+    <t>Riddle Answer: key</t>
+  </si>
+  <si>
+    <t>Next Decision: hide</t>
+  </si>
+  <si>
+    <t>You are found, and you are captured.</t>
+  </si>
+  <si>
+    <t>Game over due to hiding.</t>
+  </si>
+  <si>
+    <t>TC11</t>
+  </si>
+  <si>
+    <t>Name: Kevin</t>
+  </si>
+  <si>
+    <t>Ah, Kevin, a name that echoes with potential!</t>
+  </si>
+  <si>
+    <t>Confidence: 5.0</t>
+  </si>
+  <si>
+    <t>You swim skillfully and reach the other side with ease!</t>
+  </si>
+  <si>
+    <t>Steps: 11</t>
+  </si>
+  <si>
+    <t>You rush through the cave confidently, but...</t>
+  </si>
+  <si>
+    <t>TC12</t>
+  </si>
+  <si>
+    <t>Name: Lily</t>
+  </si>
+  <si>
+    <t>Ah, Lily, a name that echoes with potential!</t>
+  </si>
+  <si>
+    <t>Steps: 4</t>
+  </si>
+  <si>
+    <t>You stumble over a hidden trap and fall!</t>
+  </si>
+  <si>
+    <t>TC13</t>
+  </si>
+  <si>
+    <t>Name: Max</t>
+  </si>
+  <si>
+    <t>Ah, Max, a name that echoes with potential!</t>
+  </si>
+  <si>
+    <t>Confidence: 10.0</t>
+  </si>
+  <si>
+    <t>Steps: 8</t>
+  </si>
+  <si>
+    <t>Name: Nora</t>
+  </si>
+  <si>
+    <t>Ah, Nora, a name that echoes with potential!</t>
+  </si>
+  <si>
+    <t>Riddle Answer: book</t>
+  </si>
+  <si>
+    <t>Name: Oliver</t>
+  </si>
+  <si>
+    <t>Ah, Oliver, a name that echoes with potential!</t>
+  </si>
+  <si>
+    <t>Steps: 7</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
+    <t>Triggers a cave-in and stuck in jungle</t>
+  </si>
+  <si>
+    <t>Drowns and game over.</t>
+  </si>
+  <si>
+    <t>Confidence: 7.5</t>
+  </si>
+  <si>
+    <t>You did not have enough confidence….</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triggers a cave-in and stuck in the game. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -72,9 +407,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -94,10 +432,23 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C7E92F0-6778-4FFF-8C6A-A3B78AAD07A1}" name="Table2" displayName="Table2" ref="A2:D7" totalsRowShown="0">
+  <autoFilter ref="A2:D7" xr:uid="{0C7E92F0-6778-4FFF-8C6A-A3B78AAD07A1}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{97A701E0-76FA-434D-8391-868FDB321A54}" name="Test Case ID"/>
+    <tableColumn id="2" xr3:uid="{84F7E853-784C-4D0F-A817-F5A969F65AF0}" name="Input Sequence"/>
+    <tableColumn id="3" xr3:uid="{88030803-1246-4C56-8AC9-1DAD9235F0BA}" name="Expected Output"/>
+    <tableColumn id="4" xr3:uid="{D1269AEC-8E75-4348-A7E2-F506C5815D5C}" name="Comments"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -135,7 +486,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -241,7 +592,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -383,7 +734,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -391,27 +742,734 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF6E1F2-B43E-D343-BB9B-DE90F40B65C5}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.69921875" customWidth="1"/>
+    <col min="2" max="2" width="19.796875" customWidth="1"/>
+    <col min="3" max="3" width="50.19921875" customWidth="1"/>
+    <col min="4" max="4" width="41.69921875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" t="s">
+        <v>98</v>
+      </c>
+      <c r="C65" t="s">
+        <v>99</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>100</v>
+      </c>
+      <c r="C67" t="s">
+        <v>73</v>
+      </c>
+      <c r="D67" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" t="s">
+        <v>79</v>
+      </c>
+      <c r="D68" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C70" t="s">
+        <v>102</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" t="s">
+        <v>62</v>
+      </c>
+      <c r="D71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" t="s">
+        <v>64</v>
+      </c>
+      <c r="D72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" t="s">
+        <v>66</v>
+      </c>
+      <c r="D73" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adebu\PycharmProjects\cs151-pa1-Ms-Gigi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847B40CD-2BEE-4C18-B8BD-A761D7721DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79CD9ED-F382-4E50-A3C8-9193742C4A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="104">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -51,42 +51,27 @@
     <t>Name: Alice</t>
   </si>
   <si>
-    <t>"Ah, Alice, a name that echoes with potential!"</t>
-  </si>
-  <si>
     <t>Successful name input.</t>
   </si>
   <si>
     <t xml:space="preserve">Decision: raft </t>
   </si>
   <si>
-    <t>"You gather logs and vines to construct a makeshift raft."</t>
-  </si>
-  <si>
     <t>Chooses to build a raft.</t>
   </si>
   <si>
-    <t>"You arrive safely on the other side..."</t>
-  </si>
-  <si>
     <t>Successfully crosses the river.</t>
   </si>
   <si>
     <t>Decision: cave</t>
   </si>
   <si>
-    <t>"You cautiously approach the cave entrance..."</t>
-  </si>
-  <si>
     <t>Chooses to explore the cave.</t>
   </si>
   <si>
     <t>Steps: 6</t>
   </si>
   <si>
-    <t>"You skillfully navigate through the cave and avoid traps!"</t>
-  </si>
-  <si>
     <t>Expected Output</t>
   </si>
   <si>
@@ -99,24 +84,15 @@
     <t>Name: Bob</t>
   </si>
   <si>
-    <t>"Ah, Bob, a name that echoes with potential!"</t>
-  </si>
-  <si>
     <t>Decision: swim</t>
   </si>
   <si>
-    <t>"You take a deep breath and plunge into the river..."</t>
-  </si>
-  <si>
     <t>Chooses to swim across the river.</t>
   </si>
   <si>
     <t>Steps: 3</t>
   </si>
   <si>
-    <t>"You stumble over a hidden trap and fall!"</t>
-  </si>
-  <si>
     <t>Game over due to failing trap avoidance.</t>
   </si>
   <si>
@@ -126,33 +102,21 @@
     <t>Name: Charlie</t>
   </si>
   <si>
-    <t>"Ah, Charlie, a name that echoes with potential!"</t>
-  </si>
-  <si>
     <t>Confidence: 8.0</t>
   </si>
   <si>
-    <t>"You swim skillfully and reach the other side with ease!"</t>
-  </si>
-  <si>
     <t>Successfully swims across.</t>
   </si>
   <si>
     <t>Decision: temple</t>
   </si>
   <si>
-    <t>"You push aside the vines and enter the ancient temple..."</t>
-  </si>
-  <si>
     <t>Chooses to explore the temple.</t>
   </si>
   <si>
     <t>Riddle Answer: piano</t>
   </si>
   <si>
-    <t>"The door creaks open, revealing a chamber filled..."</t>
-  </si>
-  <si>
     <t>Successfully answers the riddle.</t>
   </si>
   <si>
@@ -162,9 +126,6 @@
     <t>Name: Dave</t>
   </si>
   <si>
-    <t>"Ah, Dave, a name that echoes with potential!"</t>
-  </si>
-  <si>
     <t>Decision: raft</t>
   </si>
   <si>
@@ -174,12 +135,6 @@
     <t>Next Decision: solve</t>
   </si>
   <si>
-    <t>"The door does not budge..."</t>
-  </si>
-  <si>
-    <t>"You take a moment and realize the answer is 'piano.'"</t>
-  </si>
-  <si>
     <t>Incorrect answer leads to next options.</t>
   </si>
   <si>
@@ -189,9 +144,6 @@
     <t>TC5</t>
   </si>
   <si>
-    <t>"Ah, Eve, a name that echoes with potential!"</t>
-  </si>
-  <si>
     <t>Name: Eve</t>
   </si>
   <si>
@@ -204,9 +156,6 @@
     <t>Steps: 12</t>
   </si>
   <si>
-    <t>"You rush through the cave confidently, but..."</t>
-  </si>
-  <si>
     <t>TC6</t>
   </si>
   <si>
@@ -258,6 +207,9 @@
     <t>The door does not budge...</t>
   </si>
   <si>
+    <t>You take a moment and realize the answer is 'piano.'</t>
+  </si>
+  <si>
     <t>TC10</t>
   </si>
   <si>
@@ -336,9 +288,6 @@
     <t>Ah, Nora, a name that echoes with potential!</t>
   </si>
   <si>
-    <t>Riddle Answer: book</t>
-  </si>
-  <si>
     <t>Name: Oliver</t>
   </si>
   <si>
@@ -364,6 +313,39 @@
   </si>
   <si>
     <t xml:space="preserve">Triggers a cave-in and stuck in the game. </t>
+  </si>
+  <si>
+    <t>Confidence: 20.05</t>
+  </si>
+  <si>
+    <t>You take a deep breath and plunge into the river…</t>
+  </si>
+  <si>
+    <t>You are overconfident…</t>
+  </si>
+  <si>
+    <t>TEST CASES FOR "QUEST FOR MASTER KEY"</t>
+  </si>
+  <si>
+    <t>Ah, Alice, a name that echoes with potential!</t>
+  </si>
+  <si>
+    <t>You arrive safely on the other side...</t>
+  </si>
+  <si>
+    <t>Ah, Bob, a name that echoes with potential!</t>
+  </si>
+  <si>
+    <t>Ah, Charlie, a name that echoes with potential!</t>
+  </si>
+  <si>
+    <t>The door creaks open, revealing a chamber filled...</t>
+  </si>
+  <si>
+    <t>Ah, Dave, a name that echoes with potential!</t>
+  </si>
+  <si>
+    <t>Ah, Eve, a name that echoes with potential!</t>
   </si>
 </sst>
 </file>
@@ -433,8 +415,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C7E92F0-6778-4FFF-8C6A-A3B78AAD07A1}" name="Table2" displayName="Table2" ref="A2:D7" totalsRowShown="0">
-  <autoFilter ref="A2:D7" xr:uid="{0C7E92F0-6778-4FFF-8C6A-A3B78AAD07A1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C7E92F0-6778-4FFF-8C6A-A3B78AAD07A1}" name="Table2" displayName="Table2" ref="A2:D72" totalsRowShown="0">
+  <autoFilter ref="A2:D72" xr:uid="{0C7E92F0-6778-4FFF-8C6A-A3B78AAD07A1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{97A701E0-76FA-434D-8391-868FDB321A54}" name="Test Case ID"/>
     <tableColumn id="2" xr3:uid="{84F7E853-784C-4D0F-A817-F5A969F65AF0}" name="Input Sequence"/>
@@ -742,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF6E1F2-B43E-D343-BB9B-DE90F40B65C5}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" activeCellId="1" sqref="E12 G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -757,7 +739,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
+      <c r="A1" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -771,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -785,681 +769,670 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
         <v>53</v>
       </c>
-      <c r="C28" t="s">
-        <v>23</v>
-      </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D40" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
         <v>59</v>
       </c>
-      <c r="B42" t="s">
-        <v>75</v>
-      </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D45" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D46" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" t="s">
         <v>67</v>
       </c>
-      <c r="B48" t="s">
-        <v>82</v>
-      </c>
-      <c r="C48" t="s">
-        <v>83</v>
-      </c>
       <c r="D48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D50" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D52" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" t="s">
         <v>74</v>
       </c>
-      <c r="B54" t="s">
-        <v>89</v>
-      </c>
-      <c r="C54" t="s">
-        <v>90</v>
-      </c>
       <c r="D54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C55" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C57" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D57" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C59" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D60" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C61" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D61" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C62" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C63" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D63" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C65" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D66" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C67" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="D67" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
-        <v>78</v>
-      </c>
-      <c r="C68" t="s">
-        <v>79</v>
-      </c>
-      <c r="D68" t="s">
-        <v>80</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>93</v>
-      </c>
       <c r="B70" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="C70" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="D70" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C71" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C72" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
-        <v>103</v>
-      </c>
-      <c r="C73" t="s">
-        <v>66</v>
-      </c>
-      <c r="D73" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
